--- a/LPproject/TestCasedocument.xlsx
+++ b/LPproject/TestCasedocument.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4095"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Validation_tables" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCase_Main" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t xml:space="preserve">        S.NO</t>
   </si>
@@ -54,13 +55,239 @@
   </si>
   <si>
     <t>enter invalid username and invalid password</t>
+  </si>
+  <si>
+    <t>enter invalid username and valid password</t>
+  </si>
+  <si>
+    <t>able to enroll all LPs</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Test case ID</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>enroll all LPs</t>
+  </si>
+  <si>
+    <t>assign a mentor</t>
+  </si>
+  <si>
+    <t>look into venue options</t>
+  </si>
+  <si>
+    <t>list of training venues should be displayed</t>
+  </si>
+  <si>
+    <t>admin module</t>
+  </si>
+  <si>
+    <t>block the venue</t>
+  </si>
+  <si>
+    <t>admin can be able to block the venue</t>
+  </si>
+  <si>
+    <t>issues tab should be able to display all the issues raised</t>
+  </si>
+  <si>
+    <t>click on issues tab</t>
+  </si>
+  <si>
+    <t>click on batch details</t>
+  </si>
+  <si>
+    <t>details of that particular batch has to be displayed</t>
+  </si>
+  <si>
+    <t>click on mentor details</t>
+  </si>
+  <si>
+    <t>details of the mentor should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on LP details </t>
+  </si>
+  <si>
+    <t>details of the lp should be displayed</t>
+  </si>
+  <si>
+    <t>create a batch</t>
+  </si>
+  <si>
+    <t>view LPs</t>
+  </si>
+  <si>
+    <t>mentor should be able get the LP details</t>
+  </si>
+  <si>
+    <t>create a training schedule</t>
+  </si>
+  <si>
+    <t>able to create trainig schedule</t>
+  </si>
+  <si>
+    <t>enroll all LPs into batch</t>
+  </si>
+  <si>
+    <t>all Lps should be enrolled into the batch</t>
+  </si>
+  <si>
+    <t>mentor should be assigned</t>
+  </si>
+  <si>
+    <t>mentor should be able create the batch</t>
+  </si>
+  <si>
+    <t>publish training calender</t>
+  </si>
+  <si>
+    <t>LPs should able view the training calender</t>
+  </si>
+  <si>
+    <t>mentor module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update details </t>
+  </si>
+  <si>
+    <t>able to update details</t>
+  </si>
+  <si>
+    <t>view training calander</t>
+  </si>
+  <si>
+    <t>training calender has to display</t>
+  </si>
+  <si>
+    <t>LP module</t>
+  </si>
+  <si>
+    <t>Input Data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                    Quality Assurance Test Case(QATC)</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case Id</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Feature Description</t>
+  </si>
+  <si>
+    <t>Prerequisite</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Number od TC combinations</t>
+  </si>
+  <si>
+    <t>Automated</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status (pass/Fail)</t>
+  </si>
+  <si>
+    <t>Defect Id</t>
+  </si>
+  <si>
+    <t>Build Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,8 +303,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,8 +325,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -197,30 +438,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -233,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -243,7 +460,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -265,12 +493,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -299,10 +542,10 @@
       <xdr:rowOff>21432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>164307</xdr:rowOff>
+      <xdr:rowOff>178594</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -312,7 +555,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="607218" y="211932"/>
-          <a:ext cx="8262938" cy="333375"/>
+          <a:ext cx="10656094" cy="347662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,523 +892,1564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F62"/>
+  <dimension ref="B2:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="2" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+    <row r="7" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="F7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
         <v>3</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="F9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
         <v>4</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="C10" s="11"/>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
         <v>5</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="C11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>6</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="C12" s="11"/>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
         <v>7</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+      <c r="C13" s="11"/>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
         <v>8</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="C14" s="11"/>
+      <c r="D14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
         <v>9</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+      <c r="C15" s="11"/>
+      <c r="D15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
         <v>10</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="C16" s="11"/>
+      <c r="D16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
         <v>11</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+      <c r="C17" s="11"/>
+      <c r="D17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
         <v>12</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+      <c r="C18" s="11"/>
+      <c r="D18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
         <v>13</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+      <c r="C19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
         <v>14</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
+      <c r="C20" s="11"/>
+      <c r="D20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
         <v>15</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
+      <c r="C21" s="11"/>
+      <c r="D21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
         <v>16</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
+      <c r="C22" s="11"/>
+      <c r="D22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
         <v>17</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
+      <c r="C23" s="11"/>
+      <c r="D23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
         <v>18</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
+      <c r="C24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
         <v>19</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
+      <c r="C25" s="11"/>
+      <c r="D25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
         <v>20</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
         <v>21</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
         <v>22</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
         <v>23</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="B4:F5"/>
+  <mergeCells count="6">
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:H5"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:Q44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="17" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="24"/>
+    </row>
+    <row r="4" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="25"/>
+    </row>
+    <row r="5" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="4:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="4:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="4:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="4:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="9">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="4:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="9">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="4:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="9">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="4:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="9">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="4:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="9">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="4:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="9">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="4:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="9">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="4:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="9">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="4:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="9">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="4:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="9">
+        <v>13</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="4:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="9">
+        <v>14</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="4:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="9">
+        <v>15</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="4:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="9">
+        <v>16</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="4:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="9">
+        <v>17</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="4:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="9">
+        <v>18</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="4:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="9">
+        <v>19</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="4:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="9">
+        <v>20</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="4:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="9">
+        <v>21</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="4:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="9">
+        <v>22</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="4:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="9">
+        <v>23</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="4:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="9">
+        <v>24</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="4:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="9">
+        <v>25</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="4:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="9">
+        <v>26</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="4:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="9">
+        <v>27</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="4:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="9">
+        <v>28</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="4:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="9">
+        <v>29</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="4:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="9">
+        <v>30</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="4:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="9">
+        <v>31</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="4:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="9">
+        <v>32</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="4:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="9">
+        <v>33</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="4:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="9">
+        <v>34</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="4:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="9">
+        <v>35</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="4:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="9">
+        <v>36</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" spans="4:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="9">
+        <v>37</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:Q4"/>
+    <mergeCell ref="D5:Q6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>